--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>174.4169433467067</v>
+        <v>10.83258217479144</v>
       </c>
       <c r="R2">
-        <v>1569.75249012036</v>
+        <v>97.49323957312299</v>
       </c>
       <c r="S2">
-        <v>0.001669597081901825</v>
+        <v>0.0001581230033989751</v>
       </c>
       <c r="T2">
-        <v>0.001669597081901825</v>
+        <v>0.0001581230033989751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>185.6242087399657</v>
+        <v>32.00260045121789</v>
       </c>
       <c r="R3">
-        <v>1670.617878659691</v>
+        <v>288.023404060961</v>
       </c>
       <c r="S3">
-        <v>0.001776878044620508</v>
+        <v>0.0004671413720451553</v>
       </c>
       <c r="T3">
-        <v>0.001776878044620508</v>
+        <v>0.0004671413720451554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>51.97459960269201</v>
+        <v>4.263953422569778</v>
       </c>
       <c r="R4">
-        <v>467.771396424228</v>
+        <v>38.375580803128</v>
       </c>
       <c r="S4">
-        <v>0.0004975241405141209</v>
+        <v>6.224084993318346E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004975241405141208</v>
+        <v>6.224084993318347E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>42536.24397567315</v>
+        <v>15323.28239297202</v>
       </c>
       <c r="R5">
-        <v>382826.1957810584</v>
+        <v>137909.5415367482</v>
       </c>
       <c r="S5">
-        <v>0.4071759741579543</v>
+        <v>0.223673672150474</v>
       </c>
       <c r="T5">
-        <v>0.4071759741579542</v>
+        <v>0.2236736721504741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>45269.43586586796</v>
+        <v>45269.43586586795</v>
       </c>
       <c r="R6">
-        <v>407424.9227928116</v>
+        <v>407424.9227928115</v>
       </c>
       <c r="S6">
-        <v>0.433339310795932</v>
+        <v>0.660797125356322</v>
       </c>
       <c r="T6">
-        <v>0.4333393107959319</v>
+        <v>0.6607971253563222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>12675.39842642115</v>
+        <v>6031.596285192657</v>
       </c>
       <c r="R7">
-        <v>114078.5858377903</v>
+        <v>54284.36656673392</v>
       </c>
       <c r="S7">
-        <v>0.1213345895107692</v>
+        <v>0.08804310039061632</v>
       </c>
       <c r="T7">
-        <v>0.1213345895107692</v>
+        <v>0.08804310039061633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>1512.710217092106</v>
+        <v>422.2484311768972</v>
       </c>
       <c r="R8">
-        <v>13614.39195382896</v>
+        <v>3800.235880592075</v>
       </c>
       <c r="S8">
-        <v>0.01448033955737676</v>
+        <v>0.006163552608312602</v>
       </c>
       <c r="T8">
-        <v>0.01448033955737676</v>
+        <v>0.006163552608312604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>1609.910320136831</v>
+        <v>1247.444756574669</v>
       </c>
       <c r="R9">
-        <v>14489.19288123148</v>
+        <v>11227.00280917203</v>
       </c>
       <c r="S9">
-        <v>0.01541078246785386</v>
+        <v>0.01820892824085017</v>
       </c>
       <c r="T9">
-        <v>0.01541078246785385</v>
+        <v>0.01820892824085018</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>450.773338528112</v>
+        <v>166.2066914646888</v>
       </c>
       <c r="R10">
-        <v>4056.960046753008</v>
+        <v>1495.8602231822</v>
       </c>
       <c r="S10">
-        <v>0.004315004243077685</v>
+        <v>0.002426116028047521</v>
       </c>
       <c r="T10">
-        <v>0.004315004243077685</v>
+        <v>0.002426116028047522</v>
       </c>
     </row>
   </sheetData>
